--- a/docs/Sprints Backlogs/Sprint7 Backlog.xlsx
+++ b/docs/Sprints Backlogs/Sprint7 Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15405" windowHeight="6270" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15405" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint #2" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="Team">Lookups!$F$2:$F$7</definedName>
     <definedName name="Type">Lookups!$E$2:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -1153,9 +1153,6 @@
     <t>Fim</t>
   </si>
   <si>
-    <t>Elaboração do Documento de Visão e Escopo</t>
-  </si>
-  <si>
     <t>Joelton</t>
   </si>
   <si>
@@ -1184,6 +1181,9 @@
   </si>
   <si>
     <t>eBM</t>
+  </si>
+  <si>
+    <t>Implementação Gráfica e Estilização</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1548,15 +1551,54 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="40"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="40"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1669,7 +1711,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1704857107406077"/>
-          <c:y val="2.6881786835469133E-2"/>
+          <c:y val="2.6881786835469143E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1735,27 +1777,39 @@
             <c:strRef>
               <c:f>'Sprint #2'!$T$2:$AD$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21/10/2013</c:v>
+                  <c:v>21/01/2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22/10/2013</c:v>
+                  <c:v>22/01/2014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23/10/2013</c:v>
+                  <c:v>23/01/2014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24/10/2013</c:v>
+                  <c:v>24/01/2014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25/10/2013</c:v>
+                  <c:v>27/01/2014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28/10/2013</c:v>
+                  <c:v>28/01/2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29/01/2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30/01/2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31/01/2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>03/02/2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1770,33 +1824,45 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                <c:pt idx="9">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90875392"/>
-        <c:axId val="90877312"/>
+        <c:axId val="62888192"/>
+        <c:axId val="63448576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90875392"/>
+        <c:axId val="62888192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1894,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41558653408557089"/>
+              <c:x val="0.41558653408557095"/>
               <c:y val="0.93052333586002856"/>
             </c:manualLayout>
           </c:layout>
@@ -1866,7 +1932,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90877312"/>
+        <c:crossAx val="63448576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1941,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90877312"/>
+        <c:axId val="63448576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1957,7 +2023,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90875392"/>
+        <c:crossAx val="62888192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,11 +2438,11 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:BA42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
+      <selection pane="bottomRight" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2409,11 +2475,11 @@
       <c r="B1" s="36"/>
       <c r="N1" s="38"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:53" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="35" t="s">
@@ -2477,32 +2543,44 @@
         <v>21</v>
       </c>
       <c r="U2" s="18">
-        <v>41568</v>
+        <v>41660</v>
       </c>
       <c r="V2" s="18">
         <f>IF(AND(WEEKDAY(U2) &gt; 0,WEEKDAY(U2) &lt; 6), U2+1, U2+3)</f>
-        <v>41569</v>
+        <v>41661</v>
       </c>
       <c r="W2" s="46">
         <f t="shared" ref="W2:X2" si="0">IF(AND(WEEKDAY(V2) &gt; 0,WEEKDAY(V2) &lt; 6), V2+1, V2+3)</f>
-        <v>41570</v>
+        <v>41662</v>
       </c>
       <c r="X2" s="18">
         <f t="shared" si="0"/>
-        <v>41571</v>
+        <v>41663</v>
       </c>
       <c r="Y2" s="18">
         <f t="shared" ref="Y2" si="1">IF(AND(WEEKDAY(X2) &gt; 0,WEEKDAY(X2) &lt; 6), X2+1, X2+3)</f>
-        <v>41572</v>
+        <v>41666</v>
       </c>
       <c r="Z2" s="18">
         <f t="shared" ref="Z2" si="2">IF(AND(WEEKDAY(Y2) &gt; 0,WEEKDAY(Y2) &lt; 6), Y2+1, Y2+3)</f>
-        <v>41575</v>
-      </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
+        <v>41667</v>
+      </c>
+      <c r="AA2" s="18">
+        <f t="shared" ref="AA2" si="3">IF(AND(WEEKDAY(Z2) &gt; 0,WEEKDAY(Z2) &lt; 6), Z2+1, Z2+3)</f>
+        <v>41668</v>
+      </c>
+      <c r="AB2" s="18">
+        <f t="shared" ref="AB2" si="4">IF(AND(WEEKDAY(AA2) &gt; 0,WEEKDAY(AA2) &lt; 6), AA2+1, AA2+3)</f>
+        <v>41669</v>
+      </c>
+      <c r="AC2" s="18">
+        <f t="shared" ref="AC2:AD2" si="5">IF(AND(WEEKDAY(AB2) &gt; 0,WEEKDAY(AB2) &lt; 6), AB2+1, AB2+3)</f>
+        <v>41670</v>
+      </c>
+      <c r="AD2" s="18">
+        <f t="shared" si="5"/>
+        <v>41673</v>
+      </c>
       <c r="AE2" s="18"/>
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
@@ -2529,15 +2607,15 @@
     </row>
     <row r="3" spans="1:53" ht="38.25">
       <c r="A3" s="45" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="71">
-        <v>41568</v>
-      </c>
-      <c r="E3" s="71">
-        <v>41575</v>
+      <c r="D3" s="65">
+        <v>41660</v>
+      </c>
+      <c r="E3" s="65">
+        <v>41673</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="60" t="s">
@@ -2550,28 +2628,28 @@
         <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q19" si="3">IF(P3&lt;&gt;"",P3-O3,"")</f>
+        <f t="shared" ref="Q3:Q19" si="6">IF(P3&lt;&gt;"",P3-O3,"")</f>
         <v/>
       </c>
       <c r="R3" s="3">
         <f>IF(P3="",O3,P3)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S19" si="4">R3-SUM(U3:AI3)</f>
-        <v>6</v>
+        <f t="shared" ref="S3:S19" si="7">R3-SUM(U3:AI3)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -2584,15 +2662,15 @@
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="Q4" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R4" s="3">
-        <f t="shared" ref="R4:R19" si="5">IF(P4="",O4,P4)</f>
+        <f t="shared" ref="R4:R19" si="8">IF(P4="",O4,P4)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2606,15 +2684,15 @@
       <c r="H5" s="60"/>
       <c r="J5" s="41"/>
       <c r="Q5" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X5" s="53"/>
@@ -2630,15 +2708,15 @@
       <c r="H6" s="60"/>
       <c r="J6" s="41"/>
       <c r="Q6" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2652,15 +2730,15 @@
       <c r="H7" s="60"/>
       <c r="J7" s="41"/>
       <c r="Q7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2675,15 +2753,15 @@
       <c r="J8" s="41"/>
       <c r="N8" s="50"/>
       <c r="Q8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2698,15 +2776,15 @@
       <c r="J9" s="41"/>
       <c r="N9" s="50"/>
       <c r="Q9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2721,15 +2799,15 @@
       <c r="J10" s="41"/>
       <c r="N10" s="50"/>
       <c r="Q10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2743,15 +2821,15 @@
       <c r="H11" s="60"/>
       <c r="J11" s="41"/>
       <c r="Q11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2765,15 +2843,15 @@
       <c r="H12" s="60"/>
       <c r="J12" s="41"/>
       <c r="Q12" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2788,15 +2866,15 @@
       <c r="J13" s="41"/>
       <c r="N13" s="50"/>
       <c r="Q13" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2811,15 +2889,15 @@
       <c r="J14" s="41"/>
       <c r="N14" s="50"/>
       <c r="Q14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,15 +2912,15 @@
       <c r="J15" s="41"/>
       <c r="N15" s="50"/>
       <c r="Q15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2857,15 +2935,15 @@
       <c r="J16" s="41"/>
       <c r="N16" s="50"/>
       <c r="Q16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2880,15 +2958,15 @@
       <c r="J17" s="41"/>
       <c r="N17" s="50"/>
       <c r="Q17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2903,15 +2981,15 @@
       <c r="J18" s="41"/>
       <c r="N18" s="50"/>
       <c r="Q18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2933,15 +3011,15 @@
       <c r="O19" s="5"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R19" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S19" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T19" s="5"/>
@@ -2981,7 +3059,7 @@
       </c>
       <c r="O20">
         <f>SUM(O3:O19)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="8">
@@ -2990,11 +3068,11 @@
       </c>
       <c r="R20" s="8">
         <f>SUM(R3:R19)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S20" s="2">
         <f>SUM(S3:S19)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20"/>
@@ -3037,27 +3115,39 @@
       </c>
       <c r="O21" s="7">
         <f>R20</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="51">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+      <c r="AD21">
         <v>1</v>
       </c>
     </row>
@@ -3075,27 +3165,43 @@
       <c r="T22" s="25"/>
       <c r="U22">
         <f>T22+U21</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22">
         <f>U22+V21</f>
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="W22">
         <f>V22+W21</f>
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:AP22" si="6">W22+X21</f>
-        <v>4</v>
+        <f t="shared" ref="X22:Z22" si="9">W22+X21</f>
+        <v>10</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ref="AA22" si="10">Z22+AA21</f>
+        <v>20</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ref="AB22" si="11">AA22+AB21</f>
+        <v>24</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" ref="AC22" si="12">AB22+AC21</f>
+        <v>28</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" ref="AD22" si="13">AC22+AD21</f>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:53">
@@ -3112,27 +3218,43 @@
       <c r="T23" s="25"/>
       <c r="U23">
         <f>$O20-U22+SUM($T26:U26)</f>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="V23">
         <f>$O20-V22+SUM($T26:V26)</f>
-        <v>4.5</v>
+        <v>22</v>
       </c>
       <c r="W23">
         <f>$O20-W22+SUM($T26:W26)</f>
-        <v>3.5</v>
+        <v>22</v>
       </c>
       <c r="X23">
         <f>$O20-X22+SUM($T26:X26)</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Y23">
         <f>$O20-Y22+SUM($T26:Y26)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Z23">
         <f>$O20-Z22+SUM($T26:Z26)</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AA23">
+        <f>$O20-AA22+SUM($T26:AA26)</f>
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <f>$O20-AB22+SUM($T26:AB26)</f>
+        <v>6</v>
+      </c>
+      <c r="AC23">
+        <f>$O20-AC22+SUM($T26:AC26)</f>
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <f>$O20-AD22+SUM($T26:AD26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:53">
@@ -3145,33 +3267,45 @@
         <v>1</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" ref="U24:AP24" ca="1" si="7">IF(U2 &lt; $S$30, U23/$O$21, NA())</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="U24:AD24" ca="1" si="14">IF(U2 &lt; $S$30, U23/$O$21, NA())</f>
+        <v>0.9</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.75</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X24" s="11">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y24" s="11">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA24" s="11">
+        <f t="shared" ca="1" si="14"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Z24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
+      <c r="AB24" s="11">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC24" s="11">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AD24" s="11">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
@@ -3191,7 +3325,7 @@
       </c>
       <c r="O25">
         <f>S20</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="T25" s="25"/>
       <c r="U25" s="12"/>
@@ -3317,7 +3451,7 @@
       </c>
       <c r="O29" s="22">
         <f>((O25/O28)/8)/0.8</f>
-        <v>0.46875</v>
+        <v>2.34375</v>
       </c>
       <c r="R29" s="14" t="s">
         <v>30</v>
@@ -3333,7 +3467,7 @@
       </c>
       <c r="S30" s="39">
         <f ca="1">NOW()</f>
-        <v>41675.826051041666</v>
+        <v>41681.845574421299</v>
       </c>
     </row>
     <row r="32" spans="1:53">
@@ -3356,27 +3490,27 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="S29 T27">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T19">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:AP2">
-    <cfRule type="cellIs" dxfId="1" priority="158" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="158" stopIfTrue="1" operator="between">
       <formula>$S$30</formula>
       <formula>$S$30-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations disablePrompts="1" count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G65509 G3:G20">
       <formula1>Team</formula1>
     </dataValidation>
@@ -3411,7 +3545,7 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -3488,16 +3622,16 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3511,13 +3645,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="40"/>
     </row>
@@ -3532,7 +3666,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3540,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3548,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3659,11 +3793,11 @@
     <row r="1" spans="1:51" s="21" customFormat="1">
       <c r="K1" s="33"/>
       <c r="L1" s="17"/>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:51" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -4118,7 +4252,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q3:R20">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Sprints Backlogs/Sprint7 Backlog.xlsx
+++ b/docs/Sprints Backlogs/Sprint7 Backlog.xlsx
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -1184,6 +1184,9 @@
   </si>
   <si>
     <t>Implementação Gráfica e Estilização</t>
+  </si>
+  <si>
+    <t>Tayllan_Felippe</t>
   </si>
 </sst>
 </file>
@@ -1556,49 +1559,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1701,7 +1662,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Sprint 1 - eBM - EM 28/10/2013 as 20:00h.</a:t>
+              <a:t>Sprint 7 - eBM - EM 04/02/2014 as 20:00h.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1711,7 +1672,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1704857107406077"/>
-          <c:y val="2.6881786835469143E-2"/>
+          <c:y val="2.6881786835469174E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1858,11 +1819,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62888192"/>
-        <c:axId val="63448576"/>
+        <c:axId val="71222016"/>
+        <c:axId val="71223936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62888192"/>
+        <c:axId val="71222016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1855,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41558653408557095"/>
+              <c:x val="0.41558653408557117"/>
               <c:y val="0.93052333586002856"/>
             </c:manualLayout>
           </c:layout>
@@ -1932,7 +1893,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63448576"/>
+        <c:crossAx val="71223936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1941,7 +1902,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63448576"/>
+        <c:axId val="71223936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2023,7 +1984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62888192"/>
+        <c:crossAx val="71222016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2439,10 +2400,10 @@
   <dimension ref="A1:BA42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD21" sqref="AD21"/>
+      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2619,7 +2580,7 @@
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="60" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H3" s="60">
         <v>9</v>
@@ -3467,7 +3428,7 @@
       </c>
       <c r="S30" s="39">
         <f ca="1">NOW()</f>
-        <v>41681.845574421299</v>
+        <v>41689.008114699071</v>
       </c>
     </row>
     <row r="32" spans="1:53">
@@ -3490,27 +3451,27 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="S29 T27">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:T19">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:AP2">
-    <cfRule type="cellIs" dxfId="3" priority="158" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="158" stopIfTrue="1" operator="between">
       <formula>$S$30</formula>
       <formula>$S$30-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G65509 G3:G20">
       <formula1>Team</formula1>
     </dataValidation>
@@ -3574,7 +3535,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3690,7 +3651,9 @@
         <v>6</v>
       </c>
       <c r="D7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="F7" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="I7">
         <v>36</v>
       </c>
@@ -4252,7 +4215,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q3:R20">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
